--- a/source/_static/documents/excel/practice6.xlsx
+++ b/source/_static/documents/excel/practice6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C58866BC-DD0C-46D9-A78A-A96C5018A909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB83150-0DDD-425F-B063-5443FE6E0C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4908" yWindow="2916" windowWidth="17280" windowHeight="8964" xr2:uid="{36C0B9D6-B4DD-4B8E-834A-9056D3CA6800}"/>
+    <workbookView xWindow="3090" yWindow="3960" windowWidth="17280" windowHeight="10365" xr2:uid="{36C0B9D6-B4DD-4B8E-834A-9056D3CA6800}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,12 +514,12 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -539,7 +539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -560,7 +560,7 @@
         <v>47100</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -581,7 +581,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -602,7 +602,7 @@
         <v>28200</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
@@ -623,7 +623,7 @@
         <v>46500</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
@@ -644,7 +644,7 @@
         <v>50500</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
